--- a/public/cohort/fileExcel/xlsxUIT/OPEN/KUBV_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/KUBV_OPEN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -924,22 +924,25 @@
     <t>mavo?</t>
   </si>
   <si>
-    <t>KuBV-opdracht 1: Leporello</t>
+    <t>kies...</t>
   </si>
   <si>
     <t>A1, A2, A3, B</t>
+  </si>
+  <si>
+    <t>Onderzoek: oriëntatie op studie en beroep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C </t>
+  </si>
+  <si>
+    <t>KuBV-opdracht 1: Leporello</t>
   </si>
   <si>
     <t>KuBV-opdracht 2: Portret Monochroom</t>
   </si>
   <si>
     <t>KuBV-opdracht 3: Portret Lijn/Vlak</t>
-  </si>
-  <si>
-    <t>Onderzoek: oriÃ«ntatie op studie en beroep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C </t>
   </si>
   <si>
     <t>A</t>
@@ -951,7 +954,7 @@
     <t xml:space="preserve">KuBV-opdracht 2 Bestaande uit beeldend proces in dummy en uitwerking. </t>
   </si>
   <si>
-    <t>Onderzoek 'oriÃ«ntatie op studie en beroep'</t>
+    <t>Onderzoek 'oriëntatie op studie en beroep'</t>
   </si>
   <si>
     <t>C</t>
@@ -960,7 +963,7 @@
     <t xml:space="preserve">KuBV-opdracht 3. Bestaande uit beeldend proces in dummy en uitwerking. </t>
   </si>
   <si>
-    <t xml:space="preserve">KuBV-opdracht 1: Me and Myself/ Dit ben ik. Bestaande uit beeldend proces in dummy en uitwerking. </t>
+    <t>KuBV-opdracht 1: zie opdrachtsstencil. Bestaande uit beeldend proces in dummy en uitwerking.</t>
   </si>
   <si>
     <t xml:space="preserve">KuBV-opdracht 2: zie opdrachtsstencil. Bestaande uit beeldend proces in dummy en uitwerking. </t>
@@ -969,7 +972,10 @@
     <t xml:space="preserve">KuBV-opdracht 3: zie opdrachtsstencil. Bestaande uit beeldend proces in dummy en uitwerking. </t>
   </si>
   <si>
-    <t xml:space="preserve">Onderzoek 'oriÃ«ntatie op studie en beroep'. </t>
+    <t xml:space="preserve">KuBV-opdracht 1: Me and Myself/ Dit ben ik. Bestaande uit beeldend proces in dummy en uitwerking. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onderzoek 'oriëntatie op studie en beroep'. </t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2202,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2367,7 +2373,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2412,7 +2418,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -2428,7 +2434,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -2461,7 +2467,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2506,7 +2512,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -2522,7 +2528,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -2555,7 +2561,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2600,7 +2606,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -2616,7 +2622,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -2650,7 +2656,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2695,7 +2701,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -2711,7 +2717,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -2720,7 +2726,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602372685</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4456,7 +4462,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -4627,7 +4633,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4672,7 +4678,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -4688,7 +4694,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -4721,7 +4727,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4766,7 +4772,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -4782,7 +4788,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -4815,7 +4821,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4860,7 +4866,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -4876,7 +4882,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -4910,7 +4916,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -4955,7 +4961,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -4971,7 +4977,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -4980,7 +4986,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5352,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5442,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5532,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5622,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -5640,7 +5646,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -7248,7 +7254,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7620,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7710,7 +7716,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7800,7 +7806,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -7890,7 +7896,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -7908,7 +7914,7 @@
         <v>11</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
@@ -9016,7 +9022,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -9162,7 +9168,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
         <v>1094</v>
@@ -9187,7 +9193,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9232,7 +9238,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -9248,7 +9254,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -9281,7 +9287,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9326,7 +9332,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -9342,7 +9348,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -9375,7 +9381,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9420,7 +9426,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -9436,7 +9442,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -9470,7 +9476,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9515,7 +9521,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -9531,7 +9537,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -9540,7 +9546,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11278,7 +11284,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11424,7 +11430,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2">
         <v>503</v>
@@ -11449,7 +11455,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11494,7 +11500,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11510,7 +11516,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11543,7 +11549,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11588,7 +11594,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11604,7 +11610,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11637,7 +11643,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11682,7 +11688,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11698,7 +11704,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -11732,7 +11738,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11777,7 +11783,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11793,7 +11799,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -11802,7 +11808,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -12174,7 +12180,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -12189,7 +12195,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12234,7 +12240,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -12250,7 +12256,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -12262,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -12277,7 +12283,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -12322,7 +12328,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -12338,7 +12344,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -12350,7 +12356,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -12370,7 +12376,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -12442,7 +12448,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -13572,7 +13578,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13718,7 +13724,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -14072,7 +14078,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14444,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I18" s="45">
         <v>3</v>
@@ -14459,7 +14465,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14504,7 +14510,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -14520,7 +14526,7 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
@@ -14532,7 +14538,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="45">
         <v>3</v>
@@ -14547,7 +14553,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14592,7 +14598,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -14608,7 +14614,7 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -14620,7 +14626,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" s="45">
         <v>1</v>
@@ -14640,7 +14646,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -14712,7 +14718,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -15131,7 +15137,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -15221,7 +15227,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15311,7 +15317,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15393,34 +15399,26 @@
       </c>
     </row>
     <row r="33" spans="1:32" customHeight="1" ht="72">
-      <c r="D33" s="2">
-        <v>1089</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="G33" s="27">
-        <v>3</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>91</v>
-      </c>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="45"/>
       <c r="M33" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N33" s="46">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N33" s="46"/>
       <c r="O33" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="32" t="s">
-        <v>86</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -16020,7 +16018,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16374,7 +16372,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.6334375</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17401,7 +17399,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17491,7 +17489,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17581,7 +17579,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -17671,7 +17669,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -17689,7 +17687,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/KUBV_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/KUBV_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t>KuBV-opdracht 1</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -922,9 +925,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>A1, A2, A3, B</t>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2439,7 +2439,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2452,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2533,7 +2533,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>257</v>
@@ -2546,7 +2546,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2627,7 +2627,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2641,7 +2641,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2722,11 +2722,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4699,7 +4699,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4712,7 +4712,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4793,7 +4793,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>152</v>
@@ -4806,7 +4806,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4887,7 +4887,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4901,7 +4901,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -4982,11 +4982,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5252,7 +5252,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5448,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5538,7 +5538,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -6985,7 +6985,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>153</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7250,11 +7250,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7339,7 +7339,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7451,7 +7451,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7490,7 +7490,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9259,7 +9259,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9272,7 +9272,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -9287,7 +9287,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9353,7 +9353,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>258</v>
@@ -9366,7 +9366,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9447,7 +9447,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9461,7 +9461,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9542,11 +9542,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9720,7 +9720,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9743,7 +9743,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9782,7 +9782,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9812,7 +9812,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11455,7 +11455,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11521,7 +11521,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11534,7 +11534,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>3</v>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11615,7 +11615,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>154</v>
@@ -11628,7 +11628,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>3</v>
@@ -11643,7 +11643,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11709,7 +11709,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11723,7 +11723,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -11738,7 +11738,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11804,11 +11804,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.766180556</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11893,7 +11893,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -11982,7 +11982,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12044,7 +12044,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12195,7 +12195,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -13809,7 +13809,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -13897,7 +13897,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>155</v>
@@ -13985,7 +13985,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14074,11 +14074,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.76619213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14163,7 +14163,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14275,7 +14275,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14314,7 +14314,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14465,7 +14465,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -16103,7 +16103,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16191,7 +16191,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>156</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16368,11 +16368,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.6334375</v>
+        <v>44387.76619213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16457,7 +16457,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16546,7 +16546,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16569,7 +16569,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16608,7 +16608,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16638,7 +16638,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
